--- a/src/data/Public-Dataset-RaceEthSex.XLSX
+++ b/src/data/Public-Dataset-RaceEthSex.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1119</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1132</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1119"/>
+  <dimension ref="A1:G1132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -25103,7 +25103,7 @@
         <v>434</v>
       </c>
       <c r="G1107" s="0">
-        <v>0.554278416347382</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="1108">
@@ -25130,13 +25130,13 @@
         <v>280</v>
       </c>
       <c r="G1108" s="0">
-        <v>0.357598978288633</v>
+        <v>0.357</v>
       </c>
     </row>
     <row outlineLevel="0" r="1109">
       <c r="A1109" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1109" s="1">
@@ -25148,22 +25148,22 @@
         </is>
       </c>
       <c r="D1109" s="0">
-        <v>10575</v>
+        <v>741</v>
       </c>
       <c r="E1109" s="0">
-        <v>0.153125497748367</v>
+        <v>0.010729644806765</v>
       </c>
       <c r="F1109" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G1109" s="0">
-        <v>6.38569604086845E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1110">
       <c r="A1110" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1110" s="1">
@@ -25175,22 +25175,22 @@
         </is>
       </c>
       <c r="D1110" s="0">
-        <v>741</v>
+        <v>91</v>
       </c>
       <c r="E1110" s="0">
-        <v>0.010729644806765</v>
+        <v>1.31767567802378E-03</v>
       </c>
       <c r="F1110" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1110" s="0">
-        <v>0.016602809706258</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1111">
       <c r="A1111" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1111" s="1">
@@ -25202,22 +25202,22 @@
         </is>
       </c>
       <c r="D1111" s="0">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E1111" s="0">
-        <v>1.31767567802378E-03</v>
+        <v>8.25357292828079E-04</v>
       </c>
       <c r="F1111" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1111" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1112">
       <c r="A1112" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1112" s="1">
@@ -25229,16 +25229,16 @@
         </is>
       </c>
       <c r="D1112" s="0">
-        <v>57</v>
+        <v>10575</v>
       </c>
       <c r="E1112" s="0">
-        <v>8.25357292828079E-04</v>
+        <v>0.153125497748367</v>
       </c>
       <c r="F1112" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G1112" s="0">
-        <v>1.27713920817369E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1113">
@@ -25265,7 +25265,7 @@
         <v>5</v>
       </c>
       <c r="G1113" s="0">
-        <v>6.38569604086846E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1114">
@@ -25292,7 +25292,7 @@
         <v>696</v>
       </c>
       <c r="G1114" s="0">
-        <v>0.888888888888889</v>
+        <v>0.888</v>
       </c>
     </row>
     <row outlineLevel="0" r="1115">
@@ -25319,7 +25319,7 @@
         <v>74</v>
       </c>
       <c r="G1115" s="0">
-        <v>9.45083014048531E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1116">
@@ -25346,7 +25346,7 @@
         <v>13</v>
       </c>
       <c r="G1116" s="0">
-        <v>0.016602809706258</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1117">
@@ -25373,7 +25373,7 @@
         <v>343</v>
       </c>
       <c r="G1117" s="0">
-        <v>0.438058748403576</v>
+        <v>0.438</v>
       </c>
     </row>
     <row outlineLevel="0" r="1118">
@@ -25400,7 +25400,7 @@
         <v>440</v>
       </c>
       <c r="G1118" s="0">
-        <v>0.561941251596424</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="1119">
@@ -25427,6 +25427,357 @@
         <v>0</v>
       </c>
       <c r="G1119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1120">
+      <c r="A1120" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1120" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1120" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1120" s="0">
+        <v>30043</v>
+      </c>
+      <c r="E1120" s="0">
+        <v>0.419946882862734</v>
+      </c>
+      <c r="F1120" s="0">
+        <v>446</v>
+      </c>
+      <c r="G1120" s="0">
+        <v>0.560301507537688</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1121">
+      <c r="A1121" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1121" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1121" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1121" s="0">
+        <v>14422</v>
+      </c>
+      <c r="E1121" s="0">
+        <v>0.201593514117976</v>
+      </c>
+      <c r="F1121" s="0">
+        <v>282</v>
+      </c>
+      <c r="G1121" s="0">
+        <v>0.35427135678392</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1122">
+      <c r="A1122" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1122" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1122" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1122" s="0">
+        <v>10850</v>
+      </c>
+      <c r="E1122" s="0">
+        <v>0.151663405088063</v>
+      </c>
+      <c r="F1122" s="0">
+        <v>50</v>
+      </c>
+      <c r="G1122" s="0">
+        <v>6.28140703517588E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1123">
+      <c r="A1123" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1123" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1123" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1123" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1123" s="0">
+        <v>1.06234274531731E-02</v>
+      </c>
+      <c r="F1123" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1123" s="0">
+        <v>1.63316582914573E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1124">
+      <c r="A1124" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1124" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1124" s="0">
+        <v>92</v>
+      </c>
+      <c r="E1124" s="0">
+        <v>1.28599384959463E-03</v>
+      </c>
+      <c r="F1124" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1124" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1125">
+      <c r="A1125" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1125" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1125" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1125" s="0">
+        <v>57</v>
+      </c>
+      <c r="E1125" s="0">
+        <v>7.96757058987979E-04</v>
+      </c>
+      <c r="F1125" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="0">
+        <v>1.25628140703518E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1126">
+      <c r="A1126" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1126" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1126" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1126" s="0">
+        <v>15316</v>
+      </c>
+      <c r="E1126" s="0">
+        <v>0.214090019569472</v>
+      </c>
+      <c r="F1126" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1126" s="0">
+        <v>5.0251256281407E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1127">
+      <c r="A1127" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1127" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1127" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1127" s="0">
+        <v>37000</v>
+      </c>
+      <c r="E1127" s="0">
+        <v>0.51719317864132</v>
+      </c>
+      <c r="F1127" s="0">
+        <v>711</v>
+      </c>
+      <c r="G1127" s="0">
+        <v>0.89321608040201</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1128">
+      <c r="A1128" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1128" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1128" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1128" s="0">
+        <v>14862</v>
+      </c>
+      <c r="E1128" s="0">
+        <v>0.207743919485602</v>
+      </c>
+      <c r="F1128" s="0">
+        <v>75</v>
+      </c>
+      <c r="G1128" s="0">
+        <v>9.42211055276382E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1129">
+      <c r="A1129" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1129" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1129" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1129" s="0">
+        <v>19678</v>
+      </c>
+      <c r="E1129" s="0">
+        <v>0.275062901873078</v>
+      </c>
+      <c r="F1129" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1129" s="0">
+        <v>1.25628140703518E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1130">
+      <c r="A1130" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1130" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1130" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1130" s="0">
+        <v>34059</v>
+      </c>
+      <c r="E1130" s="0">
+        <v>0.476083310036343</v>
+      </c>
+      <c r="F1130" s="0">
+        <v>350</v>
+      </c>
+      <c r="G1130" s="0">
+        <v>0.439698492462312</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1131">
+      <c r="A1131" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1131" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1131" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1131" s="0">
+        <v>36423</v>
+      </c>
+      <c r="E1131" s="0">
+        <v>0.509127760693318</v>
+      </c>
+      <c r="F1131" s="0">
+        <v>446</v>
+      </c>
+      <c r="G1131" s="0">
+        <v>0.560301507537688</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1132">
+      <c r="A1132" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1132" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1132" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1132" s="0">
+        <v>1058</v>
+      </c>
+      <c r="E1132" s="0">
+        <v>1.47889292703383E-02</v>
+      </c>
+      <c r="F1132" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1132" s="0">
         <v>0</v>
       </c>
     </row>
